--- a/config_debug/fish_qys_match_server.xlsx
+++ b/config_debug/fish_qys_match_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="match_info" sheetId="2" r:id="rId1"/>
@@ -9606,9 +9606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9657,7 +9657,7 @@
         <v>20000</v>
       </c>
       <c r="B2" s="24">
-        <v>1589977800</v>
+        <v>1593608100</v>
       </c>
       <c r="C2" s="8">
         <v>1800</v>
@@ -9683,7 +9683,7 @@
         <v>20001</v>
       </c>
       <c r="B3" s="24">
-        <v>1590150600</v>
+        <v>1594212900</v>
       </c>
       <c r="C3" s="8">
         <v>1800</v>
@@ -9709,7 +9709,7 @@
         <v>20002</v>
       </c>
       <c r="B4" s="24">
-        <v>1590409800</v>
+        <v>1594817700</v>
       </c>
       <c r="C4" s="8">
         <v>1800</v>
@@ -9735,7 +9735,7 @@
         <v>20003</v>
       </c>
       <c r="B5" s="24">
-        <v>1590582600</v>
+        <v>1595422500</v>
       </c>
       <c r="C5" s="8">
         <v>1800</v>
@@ -9761,7 +9761,7 @@
         <v>20004</v>
       </c>
       <c r="B6" s="25">
-        <v>1590755400</v>
+        <v>1596027300</v>
       </c>
       <c r="C6" s="8">
         <v>1800</v>
@@ -9787,7 +9787,7 @@
         <v>20005</v>
       </c>
       <c r="B7" s="25">
-        <v>1591014600</v>
+        <v>1596632100</v>
       </c>
       <c r="C7" s="8">
         <v>1800</v>
@@ -9813,7 +9813,7 @@
         <v>20006</v>
       </c>
       <c r="B8" s="25">
-        <v>1591187400</v>
+        <v>1597236900</v>
       </c>
       <c r="C8" s="8">
         <v>1800</v>
@@ -9839,7 +9839,7 @@
         <v>20007</v>
       </c>
       <c r="B9" s="25">
-        <v>1591360200</v>
+        <v>1597841700</v>
       </c>
       <c r="C9" s="8">
         <v>1800</v>
@@ -9865,7 +9865,7 @@
         <v>20008</v>
       </c>
       <c r="B10" s="25">
-        <v>1591619400</v>
+        <v>1598446500</v>
       </c>
       <c r="C10" s="8">
         <v>1800</v>
@@ -9891,7 +9891,7 @@
         <v>20009</v>
       </c>
       <c r="B11" s="25">
-        <v>1591792200</v>
+        <v>1599051300</v>
       </c>
       <c r="C11" s="8">
         <v>1800</v>
@@ -9917,7 +9917,7 @@
         <v>20010</v>
       </c>
       <c r="B12">
-        <v>1591965000</v>
+        <v>1599656100</v>
       </c>
       <c r="C12" s="8">
         <v>1800</v>
@@ -9943,7 +9943,7 @@
         <v>20011</v>
       </c>
       <c r="B13">
-        <v>1592224200</v>
+        <v>1600260900</v>
       </c>
       <c r="C13" s="8">
         <v>1800</v>
@@ -9969,7 +9969,7 @@
         <v>20012</v>
       </c>
       <c r="B14">
-        <v>1592397000</v>
+        <v>1600865700</v>
       </c>
       <c r="C14" s="8">
         <v>1800</v>
@@ -9995,7 +9995,7 @@
         <v>20013</v>
       </c>
       <c r="B15">
-        <v>1592569800</v>
+        <v>1601470500</v>
       </c>
       <c r="C15" s="8">
         <v>1800</v>
@@ -10021,7 +10021,7 @@
         <v>20014</v>
       </c>
       <c r="B16">
-        <v>1592829000</v>
+        <v>1602075300</v>
       </c>
       <c r="C16" s="8">
         <v>1800</v>
@@ -10047,7 +10047,7 @@
         <v>20015</v>
       </c>
       <c r="B17">
-        <v>1593001800</v>
+        <v>1602680100</v>
       </c>
       <c r="C17" s="8">
         <v>1800</v>
@@ -10073,7 +10073,7 @@
         <v>20016</v>
       </c>
       <c r="B18">
-        <v>1593174600</v>
+        <v>1603284900</v>
       </c>
       <c r="C18" s="8">
         <v>1800</v>
@@ -10099,7 +10099,7 @@
         <v>20017</v>
       </c>
       <c r="B19">
-        <v>1593433800</v>
+        <v>1603889700</v>
       </c>
       <c r="C19" s="8">
         <v>1800</v>
@@ -10125,7 +10125,7 @@
         <v>20018</v>
       </c>
       <c r="B20">
-        <v>1593606600</v>
+        <v>1604494500</v>
       </c>
       <c r="C20" s="8">
         <v>1800</v>
@@ -10151,7 +10151,7 @@
         <v>20019</v>
       </c>
       <c r="B21">
-        <v>1593779400</v>
+        <v>1605099300</v>
       </c>
       <c r="C21" s="8">
         <v>1800</v>
@@ -10177,7 +10177,7 @@
         <v>20020</v>
       </c>
       <c r="B22">
-        <v>1594038600</v>
+        <v>1605704100</v>
       </c>
       <c r="C22" s="8">
         <v>1800</v>
@@ -10203,7 +10203,7 @@
         <v>20021</v>
       </c>
       <c r="B23">
-        <v>1594211400</v>
+        <v>1606308900</v>
       </c>
       <c r="C23" s="8">
         <v>1800</v>
@@ -10229,7 +10229,7 @@
         <v>20022</v>
       </c>
       <c r="B24">
-        <v>1594384200</v>
+        <v>1606913700</v>
       </c>
       <c r="C24" s="8">
         <v>1800</v>
@@ -10255,7 +10255,7 @@
         <v>20023</v>
       </c>
       <c r="B25">
-        <v>1594643400</v>
+        <v>1607518500</v>
       </c>
       <c r="C25" s="8">
         <v>1800</v>
@@ -10281,7 +10281,7 @@
         <v>20024</v>
       </c>
       <c r="B26">
-        <v>1594816200</v>
+        <v>1608123300</v>
       </c>
       <c r="C26" s="8">
         <v>1800</v>
@@ -10307,7 +10307,7 @@
         <v>20025</v>
       </c>
       <c r="B27">
-        <v>1594989000</v>
+        <v>1608728100</v>
       </c>
       <c r="C27" s="8">
         <v>1800</v>
@@ -10333,7 +10333,7 @@
         <v>20026</v>
       </c>
       <c r="B28">
-        <v>1595248200</v>
+        <v>1609332900</v>
       </c>
       <c r="C28" s="8">
         <v>1800</v>
@@ -10359,7 +10359,7 @@
         <v>20027</v>
       </c>
       <c r="B29">
-        <v>1595421000</v>
+        <v>1609937700</v>
       </c>
       <c r="C29" s="8">
         <v>1800</v>
@@ -10385,7 +10385,7 @@
         <v>20028</v>
       </c>
       <c r="B30">
-        <v>1595593800</v>
+        <v>1610542500</v>
       </c>
       <c r="C30" s="8">
         <v>1800</v>
@@ -10411,7 +10411,7 @@
         <v>20029</v>
       </c>
       <c r="B31">
-        <v>1595853000</v>
+        <v>1611147300</v>
       </c>
       <c r="C31" s="8">
         <v>1800</v>
@@ -10437,7 +10437,7 @@
         <v>20030</v>
       </c>
       <c r="B32">
-        <v>1596025800</v>
+        <v>1611752100</v>
       </c>
       <c r="C32" s="8">
         <v>1800</v>
@@ -10463,7 +10463,7 @@
         <v>20031</v>
       </c>
       <c r="B33">
-        <v>1596198600</v>
+        <v>1612356900</v>
       </c>
       <c r="C33" s="8">
         <v>1800</v>
@@ -10489,7 +10489,7 @@
         <v>20032</v>
       </c>
       <c r="B34">
-        <v>1596457800</v>
+        <v>1612961700</v>
       </c>
       <c r="C34" s="8">
         <v>1800</v>
@@ -10515,7 +10515,7 @@
         <v>20033</v>
       </c>
       <c r="B35">
-        <v>1596630600</v>
+        <v>1613566500</v>
       </c>
       <c r="C35" s="8">
         <v>1800</v>
@@ -10541,7 +10541,7 @@
         <v>20034</v>
       </c>
       <c r="B36">
-        <v>1596803400</v>
+        <v>1614171300</v>
       </c>
       <c r="C36" s="8">
         <v>1800</v>
@@ -10567,7 +10567,7 @@
         <v>20035</v>
       </c>
       <c r="B37">
-        <v>1597062600</v>
+        <v>1614776100</v>
       </c>
       <c r="C37" s="8">
         <v>1800</v>
@@ -10593,7 +10593,7 @@
         <v>20036</v>
       </c>
       <c r="B38">
-        <v>1597235400</v>
+        <v>1615380900</v>
       </c>
       <c r="C38" s="8">
         <v>1800</v>
@@ -10619,7 +10619,7 @@
         <v>20037</v>
       </c>
       <c r="B39">
-        <v>1597408200</v>
+        <v>1615985700</v>
       </c>
       <c r="C39" s="8">
         <v>1800</v>
@@ -10645,7 +10645,7 @@
         <v>20038</v>
       </c>
       <c r="B40">
-        <v>1597667400</v>
+        <v>1616590500</v>
       </c>
       <c r="C40" s="8">
         <v>1800</v>
@@ -10671,7 +10671,7 @@
         <v>20039</v>
       </c>
       <c r="B41">
-        <v>1597840200</v>
+        <v>1617195300</v>
       </c>
       <c r="C41" s="8">
         <v>1800</v>
@@ -10697,7 +10697,7 @@
         <v>20040</v>
       </c>
       <c r="B42">
-        <v>1598013000</v>
+        <v>1617800100</v>
       </c>
       <c r="C42" s="8">
         <v>1800</v>
@@ -10723,7 +10723,7 @@
         <v>20041</v>
       </c>
       <c r="B43">
-        <v>1598272200</v>
+        <v>1618404900</v>
       </c>
       <c r="C43" s="8">
         <v>1800</v>
@@ -10749,7 +10749,7 @@
         <v>20042</v>
       </c>
       <c r="B44">
-        <v>1598445000</v>
+        <v>1619009700</v>
       </c>
       <c r="C44" s="8">
         <v>1800</v>
@@ -10775,7 +10775,7 @@
         <v>20043</v>
       </c>
       <c r="B45">
-        <v>1598617800</v>
+        <v>1619614500</v>
       </c>
       <c r="C45" s="8">
         <v>1800</v>
@@ -10801,7 +10801,7 @@
         <v>20044</v>
       </c>
       <c r="B46">
-        <v>1598877000</v>
+        <v>1620219300</v>
       </c>
       <c r="C46" s="8">
         <v>1800</v>
@@ -10827,7 +10827,7 @@
         <v>20045</v>
       </c>
       <c r="B47">
-        <v>1599049800</v>
+        <v>1620824100</v>
       </c>
       <c r="C47" s="8">
         <v>1800</v>
@@ -10853,7 +10853,7 @@
         <v>20046</v>
       </c>
       <c r="B48">
-        <v>1599222600</v>
+        <v>1621428900</v>
       </c>
       <c r="C48" s="8">
         <v>1800</v>
@@ -10879,7 +10879,7 @@
         <v>20047</v>
       </c>
       <c r="B49">
-        <v>1599481800</v>
+        <v>1622033700</v>
       </c>
       <c r="C49" s="8">
         <v>1800</v>
@@ -10905,7 +10905,7 @@
         <v>20048</v>
       </c>
       <c r="B50">
-        <v>1599654600</v>
+        <v>1622638500</v>
       </c>
       <c r="C50" s="8">
         <v>1800</v>
@@ -10931,7 +10931,7 @@
         <v>20049</v>
       </c>
       <c r="B51">
-        <v>1599827400</v>
+        <v>1623243300</v>
       </c>
       <c r="C51" s="8">
         <v>1800</v>
@@ -10957,7 +10957,7 @@
         <v>20050</v>
       </c>
       <c r="B52" s="27">
-        <v>1600086600</v>
+        <v>1623848100</v>
       </c>
       <c r="C52" s="8">
         <v>1800</v>
@@ -10983,7 +10983,7 @@
         <v>20051</v>
       </c>
       <c r="B53" s="27">
-        <v>1600259400</v>
+        <v>1624452900</v>
       </c>
       <c r="C53" s="8">
         <v>1800</v>
@@ -11009,7 +11009,7 @@
         <v>20052</v>
       </c>
       <c r="B54" s="27">
-        <v>1600432200</v>
+        <v>1625057700</v>
       </c>
       <c r="C54" s="8">
         <v>1800</v>
@@ -11035,7 +11035,7 @@
         <v>20053</v>
       </c>
       <c r="B55" s="27">
-        <v>1600691400</v>
+        <v>1625662500</v>
       </c>
       <c r="C55" s="8">
         <v>1800</v>
@@ -11061,7 +11061,7 @@
         <v>20054</v>
       </c>
       <c r="B56" s="27">
-        <v>1600864200</v>
+        <v>1626267300</v>
       </c>
       <c r="C56" s="8">
         <v>1800</v>
@@ -11087,7 +11087,7 @@
         <v>20055</v>
       </c>
       <c r="B57" s="27">
-        <v>1601037000</v>
+        <v>1626872100</v>
       </c>
       <c r="C57" s="8">
         <v>1800</v>
@@ -11113,7 +11113,7 @@
         <v>20056</v>
       </c>
       <c r="B58" s="27">
-        <v>1601296200</v>
+        <v>1627476900</v>
       </c>
       <c r="C58" s="8">
         <v>1800</v>
@@ -11139,7 +11139,7 @@
         <v>20057</v>
       </c>
       <c r="B59" s="27">
-        <v>1601469000</v>
+        <v>1628081700</v>
       </c>
       <c r="C59" s="8">
         <v>1800</v>
@@ -11165,7 +11165,7 @@
         <v>20058</v>
       </c>
       <c r="B60" s="27">
-        <v>1601641800</v>
+        <v>1628686500</v>
       </c>
       <c r="C60" s="8">
         <v>1800</v>
@@ -11191,7 +11191,7 @@
         <v>20059</v>
       </c>
       <c r="B61" s="27">
-        <v>1601901000</v>
+        <v>1629291300</v>
       </c>
       <c r="C61" s="8">
         <v>1800</v>
@@ -11217,7 +11217,7 @@
         <v>20060</v>
       </c>
       <c r="B62" s="27">
-        <v>1602073800</v>
+        <v>1629896100</v>
       </c>
       <c r="C62" s="8">
         <v>1800</v>
@@ -11243,7 +11243,7 @@
         <v>20061</v>
       </c>
       <c r="B63" s="27">
-        <v>1602246600</v>
+        <v>1630500900</v>
       </c>
       <c r="C63" s="8">
         <v>1800</v>
@@ -11269,7 +11269,7 @@
         <v>20062</v>
       </c>
       <c r="B64" s="27">
-        <v>1602505800</v>
+        <v>1631105700</v>
       </c>
       <c r="C64" s="8">
         <v>1800</v>
@@ -11295,7 +11295,7 @@
         <v>20063</v>
       </c>
       <c r="B65" s="27">
-        <v>1602678600</v>
+        <v>1631710500</v>
       </c>
       <c r="C65" s="8">
         <v>1800</v>
@@ -11321,7 +11321,7 @@
         <v>20064</v>
       </c>
       <c r="B66" s="27">
-        <v>1602851400</v>
+        <v>1632315300</v>
       </c>
       <c r="C66" s="8">
         <v>1800</v>
@@ -11347,7 +11347,7 @@
         <v>20065</v>
       </c>
       <c r="B67" s="27">
-        <v>1603110600</v>
+        <v>1632920100</v>
       </c>
       <c r="C67" s="8">
         <v>1800</v>
@@ -11373,7 +11373,7 @@
         <v>20066</v>
       </c>
       <c r="B68" s="27">
-        <v>1603283400</v>
+        <v>1633524900</v>
       </c>
       <c r="C68" s="8">
         <v>1800</v>
@@ -11399,7 +11399,7 @@
         <v>20067</v>
       </c>
       <c r="B69" s="27">
-        <v>1603456200</v>
+        <v>1634129700</v>
       </c>
       <c r="C69" s="8">
         <v>1800</v>
@@ -11425,7 +11425,7 @@
         <v>20068</v>
       </c>
       <c r="B70" s="27">
-        <v>1603715400</v>
+        <v>1634734500</v>
       </c>
       <c r="C70" s="8">
         <v>1800</v>
@@ -11451,7 +11451,7 @@
         <v>20069</v>
       </c>
       <c r="B71" s="27">
-        <v>1603888200</v>
+        <v>1635339300</v>
       </c>
       <c r="C71" s="8">
         <v>1800</v>
@@ -11477,7 +11477,7 @@
         <v>20070</v>
       </c>
       <c r="B72" s="27">
-        <v>1604061000</v>
+        <v>1635944100</v>
       </c>
       <c r="C72" s="8">
         <v>1800</v>
@@ -11503,7 +11503,7 @@
         <v>20071</v>
       </c>
       <c r="B73" s="27">
-        <v>1604320200</v>
+        <v>1636548900</v>
       </c>
       <c r="C73" s="8">
         <v>1800</v>
@@ -11529,7 +11529,7 @@
         <v>20072</v>
       </c>
       <c r="B74" s="27">
-        <v>1604493000</v>
+        <v>1637153700</v>
       </c>
       <c r="C74" s="8">
         <v>1800</v>
@@ -11555,7 +11555,7 @@
         <v>20073</v>
       </c>
       <c r="B75" s="27">
-        <v>1604665800</v>
+        <v>1637758500</v>
       </c>
       <c r="C75" s="8">
         <v>1800</v>
@@ -11581,7 +11581,7 @@
         <v>20074</v>
       </c>
       <c r="B76" s="27">
-        <v>1604925000</v>
+        <v>1638363300</v>
       </c>
       <c r="C76" s="8">
         <v>1800</v>
@@ -11607,7 +11607,7 @@
         <v>20075</v>
       </c>
       <c r="B77" s="27">
-        <v>1605097800</v>
+        <v>1638968100</v>
       </c>
       <c r="C77" s="8">
         <v>1800</v>
@@ -11633,7 +11633,7 @@
         <v>20076</v>
       </c>
       <c r="B78" s="27">
-        <v>1605270600</v>
+        <v>1639572900</v>
       </c>
       <c r="C78" s="8">
         <v>1800</v>
@@ -11659,7 +11659,7 @@
         <v>20077</v>
       </c>
       <c r="B79" s="24">
-        <v>1605529800</v>
+        <v>1640177700</v>
       </c>
       <c r="C79" s="8">
         <v>1800</v>
@@ -11685,7 +11685,7 @@
         <v>20078</v>
       </c>
       <c r="B80" s="24">
-        <v>1605702600</v>
+        <v>1640782500</v>
       </c>
       <c r="C80" s="8">
         <v>1800</v>
@@ -11711,7 +11711,7 @@
         <v>20079</v>
       </c>
       <c r="B81" s="24">
-        <v>1605875400</v>
+        <v>1641387300</v>
       </c>
       <c r="C81" s="8">
         <v>1800</v>
@@ -11737,7 +11737,7 @@
         <v>20080</v>
       </c>
       <c r="B82" s="24">
-        <v>1606134600</v>
+        <v>1641992100</v>
       </c>
       <c r="C82" s="8">
         <v>1800</v>
@@ -11763,7 +11763,7 @@
         <v>20081</v>
       </c>
       <c r="B83" s="25">
-        <v>1606307400</v>
+        <v>1642596900</v>
       </c>
       <c r="C83" s="8">
         <v>1800</v>
@@ -11789,7 +11789,7 @@
         <v>20082</v>
       </c>
       <c r="B84" s="25">
-        <v>1606480200</v>
+        <v>1643201700</v>
       </c>
       <c r="C84" s="8">
         <v>1800</v>
@@ -11815,7 +11815,7 @@
         <v>20083</v>
       </c>
       <c r="B85" s="25">
-        <v>1606739400</v>
+        <v>1643806500</v>
       </c>
       <c r="C85" s="8">
         <v>1800</v>
@@ -11841,7 +11841,7 @@
         <v>20084</v>
       </c>
       <c r="B86" s="25">
-        <v>1606912200</v>
+        <v>1644411300</v>
       </c>
       <c r="C86" s="8">
         <v>1800</v>
@@ -11867,7 +11867,7 @@
         <v>20085</v>
       </c>
       <c r="B87" s="25">
-        <v>1607085000</v>
+        <v>1645016100</v>
       </c>
       <c r="C87" s="8">
         <v>1800</v>
@@ -11893,7 +11893,7 @@
         <v>20086</v>
       </c>
       <c r="B88" s="25">
-        <v>1607344200</v>
+        <v>1645620900</v>
       </c>
       <c r="C88" s="8">
         <v>1800</v>
@@ -11919,7 +11919,7 @@
         <v>20087</v>
       </c>
       <c r="B89">
-        <v>1607517000</v>
+        <v>1646225700</v>
       </c>
       <c r="C89" s="8">
         <v>1800</v>
@@ -11945,7 +11945,7 @@
         <v>20088</v>
       </c>
       <c r="B90">
-        <v>1607689800</v>
+        <v>1646830500</v>
       </c>
       <c r="C90" s="8">
         <v>1800</v>
@@ -11971,7 +11971,7 @@
         <v>20089</v>
       </c>
       <c r="B91">
-        <v>1607949000</v>
+        <v>1647435300</v>
       </c>
       <c r="C91" s="8">
         <v>1800</v>
@@ -11997,7 +11997,7 @@
         <v>20090</v>
       </c>
       <c r="B92">
-        <v>1608121800</v>
+        <v>1648040100</v>
       </c>
       <c r="C92" s="8">
         <v>1800</v>
@@ -12023,7 +12023,7 @@
         <v>20091</v>
       </c>
       <c r="B93">
-        <v>1608294600</v>
+        <v>1648644900</v>
       </c>
       <c r="C93" s="8">
         <v>1800</v>
@@ -12049,7 +12049,7 @@
         <v>20092</v>
       </c>
       <c r="B94">
-        <v>1608553800</v>
+        <v>1649249700</v>
       </c>
       <c r="C94" s="8">
         <v>1800</v>
@@ -12075,7 +12075,7 @@
         <v>20093</v>
       </c>
       <c r="B95">
-        <v>1608726600</v>
+        <v>1649854500</v>
       </c>
       <c r="C95" s="8">
         <v>1800</v>
@@ -12101,7 +12101,7 @@
         <v>20094</v>
       </c>
       <c r="B96">
-        <v>1608899400</v>
+        <v>1650459300</v>
       </c>
       <c r="C96" s="8">
         <v>1800</v>
@@ -12127,7 +12127,7 @@
         <v>20095</v>
       </c>
       <c r="B97">
-        <v>1609158600</v>
+        <v>1651064100</v>
       </c>
       <c r="C97" s="8">
         <v>1800</v>
@@ -12153,7 +12153,7 @@
         <v>20096</v>
       </c>
       <c r="B98">
-        <v>1609331400</v>
+        <v>1651668900</v>
       </c>
       <c r="C98" s="8">
         <v>1800</v>
@@ -12179,7 +12179,7 @@
         <v>20097</v>
       </c>
       <c r="B99">
-        <v>1609504200</v>
+        <v>1652273700</v>
       </c>
       <c r="C99" s="8">
         <v>1800</v>
@@ -12205,7 +12205,7 @@
         <v>20098</v>
       </c>
       <c r="B100">
-        <v>1609763400</v>
+        <v>1652878500</v>
       </c>
       <c r="C100" s="8">
         <v>1800</v>
@@ -12231,7 +12231,7 @@
         <v>20099</v>
       </c>
       <c r="B101">
-        <v>1609935225.56391</v>
+        <v>1653483300</v>
       </c>
       <c r="C101" s="8">
         <v>1800</v>
@@ -13379,7 +13379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish_qys_match_server.xlsx
+++ b/config_debug/fish_qys_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="match_info" sheetId="2" r:id="rId1"/>
@@ -2706,7 +2706,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>115</v>
@@ -2740,9 +2740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="8">
         <v>10000</v>
@@ -3323,7 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
